--- a/medicine/Psychotrope/Campo_de_Borja_(DO)/Campo_de_Borja_(DO).xlsx
+++ b/medicine/Psychotrope/Campo_de_Borja_(DO)/Campo_de_Borja_(DO).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Borja es un vin d'Espagne à l'appellation d'origine contrôlée. La zone de production se trouve au Nord-Ouest de la province de Zaragoza, formée par 16 municipalités dont le chef lieu est la ville de Ainzon où se trouve le conseil régulateur du vin. Il y a 15 caves inscrites.
@@ -512,11 +524,13 @@
           <t>L'environnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette région s'étend au pied du Moncayo, le relief est doux, formé par des plaines entre 350 et 700 mètres d'altitude. Le cers, un vent foid et sec du Nord-Ouest est le vent dominant, et le climat est continental.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette région s'étend au pied du Moncayo, le relief est doux, formé par des plaines entre 350 et 700 mètres d'altitude. Le cers, un vent foid et sec du Nord-Ouest est le vent dominant, et le climat est continental.
 À moins de 70 km de Saragosse se trouve Borja, chef-lieu de la comarque, sur la rive droite de la rivière Huecha.
-Histoire</t>
+</t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rouges: Cabernet Sauvignon, Merlot, Syrah, Tempranillo, Grenache et Mazuela (Carignan N).
 Blancs: Macabeu, Chardonnay, Muscat d'Alexandrie.</t>
@@ -575,7 +591,9 @@
           <t>Communes appartenant à l'AOC</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les communes de la DO Campo de Borja se trouvent dans la comarque du Campo de Borja.
 Agón, Ainzón, Alberite de San Juan, Albeta, Ambel, Bisimbre, Borja, Bulbuente, El Buste, Bureta, Fréscano, Fuendejalón, Magallón, Maleján, Mallén, Pozuelo de Aragón, Tabuenca et Vera de Moncayo.
@@ -607,7 +625,9 @@
           <t>Millésimes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1980 Bonne
 1981 Très Bonne
@@ -665,7 +685,9 @@
           <t>Caves</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Borsao
 Bodegas Aragonesas
